--- a/Crosswalk_2012/Crosswalk_pH.xlsx
+++ b/Crosswalk_2012/Crosswalk_pH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\2018IRFiles\2018_WQAssessment\Crosswalk_2012List\Final_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IR2018\Crosswalk_2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crosswalk!$A$1:$J$277</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Station!$A$1:$C$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Station!$A$1:$D$152</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="383">
   <si>
     <t>AU_ID</t>
   </si>
@@ -128,9 +128,6 @@
     <t>21537-ORDEQ</t>
   </si>
   <si>
-    <t>OR_WS_170900120201_02_104554</t>
-  </si>
-  <si>
     <t>11209-ORDEQ</t>
   </si>
   <si>
@@ -1170,6 +1167,12 @@
   </si>
   <si>
     <t>Station_ID</t>
+  </si>
+  <si>
+    <t>OR_WS_170900120201_02_104554.2</t>
+  </si>
+  <si>
+    <t>OR_WS_170900120201_02_104554.1</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2075,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,25 +2094,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="J1"/>
     </row>
@@ -2121,16 +2124,16 @@
         <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D2" s="18">
         <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2141,16 +2144,16 @@
         <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D3" s="14">
         <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2161,13 +2164,13 @@
         <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2178,13 +2181,13 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2195,16 +2198,16 @@
         <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2215,13 +2218,13 @@
         <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2232,13 +2235,13 @@
         <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2249,13 +2252,13 @@
         <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2266,13 +2269,13 @@
         <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2283,16 +2286,16 @@
         <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2303,16 +2306,16 @@
         <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2323,16 +2326,16 @@
         <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2343,16 +2346,16 @@
         <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2363,16 +2366,16 @@
         <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2383,16 +2386,16 @@
         <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2403,13 +2406,13 @@
         <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2420,16 +2423,16 @@
         <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2440,16 +2443,16 @@
         <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" t="s">
         <v>237</v>
-      </c>
-      <c r="E19" t="s">
-        <v>232</v>
-      </c>
-      <c r="G19" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2460,16 +2463,16 @@
         <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2480,16 +2483,16 @@
         <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2500,16 +2503,16 @@
         <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2520,16 +2523,16 @@
         <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2540,16 +2543,16 @@
         <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2560,16 +2563,16 @@
         <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
         <v>337</v>
-      </c>
-      <c r="E25" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2580,16 +2583,16 @@
         <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2600,13 +2603,13 @@
         <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2617,13 +2620,13 @@
         <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2634,19 +2637,19 @@
         <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D29" t="s">
+        <v>338</v>
+      </c>
+      <c r="E29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
         <v>339</v>
-      </c>
-      <c r="E29" t="s">
-        <v>232</v>
-      </c>
-      <c r="F29" t="s">
-        <v>222</v>
-      </c>
-      <c r="G29" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2657,16 +2660,16 @@
         <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="s">
         <v>243</v>
-      </c>
-      <c r="E30" t="s">
-        <v>232</v>
-      </c>
-      <c r="G30" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2677,16 +2680,16 @@
         <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2697,16 +2700,16 @@
         <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2717,16 +2720,16 @@
         <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2737,16 +2740,16 @@
         <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E34" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" t="s">
         <v>297</v>
-      </c>
-      <c r="E34" t="s">
-        <v>232</v>
-      </c>
-      <c r="G34" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2757,16 +2760,16 @@
         <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,16 +2780,16 @@
         <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2797,16 +2800,16 @@
         <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2817,16 +2820,16 @@
         <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2837,16 +2840,16 @@
         <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2857,16 +2860,16 @@
         <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2877,16 +2880,16 @@
         <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2897,16 +2900,16 @@
         <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E42" t="s">
+        <v>231</v>
+      </c>
+      <c r="G42" t="s">
         <v>344</v>
-      </c>
-      <c r="E42" t="s">
-        <v>232</v>
-      </c>
-      <c r="G42" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2917,19 +2920,19 @@
         <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E43" t="s">
+        <v>231</v>
+      </c>
+      <c r="F43" t="s">
+        <v>221</v>
+      </c>
+      <c r="G43" t="s">
         <v>347</v>
-      </c>
-      <c r="E43" t="s">
-        <v>232</v>
-      </c>
-      <c r="F43" t="s">
-        <v>222</v>
-      </c>
-      <c r="G43" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2940,16 +2943,16 @@
         <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2960,16 +2963,16 @@
         <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2980,16 +2983,16 @@
         <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E46" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46" t="s">
         <v>309</v>
-      </c>
-      <c r="E46" t="s">
-        <v>232</v>
-      </c>
-      <c r="G46" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3000,16 +3003,16 @@
         <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3020,16 +3023,16 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" t="s">
         <v>246</v>
-      </c>
-      <c r="E48" t="s">
-        <v>232</v>
-      </c>
-      <c r="G48" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3040,16 +3043,16 @@
         <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3060,16 +3063,16 @@
         <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3080,16 +3083,16 @@
         <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E51" t="s">
+        <v>231</v>
+      </c>
+      <c r="G51" t="s">
         <v>329</v>
-      </c>
-      <c r="E51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G51" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3100,16 +3103,16 @@
         <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3120,16 +3123,16 @@
         <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3140,16 +3143,16 @@
         <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3160,16 +3163,16 @@
         <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3180,16 +3183,16 @@
         <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3200,16 +3203,16 @@
         <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3220,16 +3223,16 @@
         <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3240,13 +3243,13 @@
         <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3257,13 +3260,13 @@
         <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3274,13 +3277,13 @@
         <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3291,13 +3294,13 @@
         <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3308,16 +3311,16 @@
         <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3328,13 +3331,13 @@
         <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3345,16 +3348,16 @@
         <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3365,16 +3368,16 @@
         <v>124</v>
       </c>
       <c r="C66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3385,16 +3388,16 @@
         <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3405,16 +3408,16 @@
         <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3425,16 +3428,16 @@
         <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3445,13 +3448,13 @@
         <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3462,16 +3465,16 @@
         <v>124</v>
       </c>
       <c r="C71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3482,16 +3485,16 @@
         <v>124</v>
       </c>
       <c r="C72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F72" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3502,13 +3505,13 @@
         <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,13 +3522,13 @@
         <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3536,16 +3539,16 @@
         <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3556,16 +3559,16 @@
         <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3576,16 +3579,16 @@
         <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3596,16 +3599,16 @@
         <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F78" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3616,16 +3619,16 @@
         <v>124</v>
       </c>
       <c r="C79" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3636,16 +3639,16 @@
         <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3656,16 +3659,16 @@
         <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3676,16 +3679,16 @@
         <v>124</v>
       </c>
       <c r="C82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F82" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3696,16 +3699,16 @@
         <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E83" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F83" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3716,16 +3719,16 @@
         <v>124</v>
       </c>
       <c r="C84" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E84" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F84" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3736,16 +3739,16 @@
         <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3756,16 +3759,16 @@
         <v>124</v>
       </c>
       <c r="C86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F86" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3776,16 +3779,16 @@
         <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F87" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3796,16 +3799,16 @@
         <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3816,13 +3819,13 @@
         <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3833,16 +3836,16 @@
         <v>124</v>
       </c>
       <c r="C90" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F90" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3853,16 +3856,16 @@
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F91" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3873,13 +3876,13 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3890,13 +3893,13 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3907,16 +3910,16 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3927,16 +3930,16 @@
         <v>124</v>
       </c>
       <c r="C95" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3947,13 +3950,13 @@
         <v>124</v>
       </c>
       <c r="C96" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3964,13 +3967,13 @@
         <v>124</v>
       </c>
       <c r="C97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3981,13 +3984,13 @@
         <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3998,13 +4001,13 @@
         <v>124</v>
       </c>
       <c r="C99" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4015,13 +4018,13 @@
         <v>124</v>
       </c>
       <c r="C100" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4032,13 +4035,13 @@
         <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4049,13 +4052,13 @@
         <v>124</v>
       </c>
       <c r="C102" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4066,13 +4069,13 @@
         <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4083,13 +4086,13 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4100,13 +4103,13 @@
         <v>124</v>
       </c>
       <c r="C105" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E105" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4117,16 +4120,16 @@
         <v>124</v>
       </c>
       <c r="C106" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4137,13 +4140,13 @@
         <v>124</v>
       </c>
       <c r="C107" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E107" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4154,16 +4157,16 @@
         <v>124</v>
       </c>
       <c r="C108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E108" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F108" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4174,16 +4177,16 @@
         <v>124</v>
       </c>
       <c r="C109" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4194,16 +4197,16 @@
         <v>124</v>
       </c>
       <c r="C110" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E110" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F110" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4214,13 +4217,13 @@
         <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E111" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4231,13 +4234,13 @@
         <v>124</v>
       </c>
       <c r="C112" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E112" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4248,13 +4251,13 @@
         <v>124</v>
       </c>
       <c r="C113" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4265,16 +4268,16 @@
         <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4285,13 +4288,13 @@
         <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E115" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4302,13 +4305,13 @@
         <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4319,13 +4322,13 @@
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E117" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4336,13 +4339,13 @@
         <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E118" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4353,13 +4356,13 @@
         <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E119" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4370,16 +4373,16 @@
         <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E120" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F120" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4390,16 +4393,16 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E121" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F121" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4410,16 +4413,16 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E122" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4430,13 +4433,13 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E123" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4447,16 +4450,16 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E124" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F124" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -4467,16 +4470,16 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E125" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F125" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4487,16 +4490,16 @@
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E126" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F126" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4507,13 +4510,13 @@
         <v>124</v>
       </c>
       <c r="C127" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E127" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4524,16 +4527,16 @@
         <v>124</v>
       </c>
       <c r="C128" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E128" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F128" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4544,16 +4547,16 @@
         <v>124</v>
       </c>
       <c r="C129" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E129" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4564,19 +4567,19 @@
         <v>124</v>
       </c>
       <c r="C130" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E130" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F130" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4587,16 +4590,16 @@
         <v>124</v>
       </c>
       <c r="C131" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F131" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -4607,13 +4610,13 @@
         <v>124</v>
       </c>
       <c r="C132" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E132" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4624,16 +4627,16 @@
         <v>124</v>
       </c>
       <c r="C133" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E133" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F133" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4644,16 +4647,16 @@
         <v>124</v>
       </c>
       <c r="C134" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E134" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F134" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4664,16 +4667,16 @@
         <v>124</v>
       </c>
       <c r="C135" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E135" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F135" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4684,16 +4687,16 @@
         <v>124</v>
       </c>
       <c r="C136" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E136" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F136" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4704,13 +4707,13 @@
         <v>124</v>
       </c>
       <c r="C137" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E137" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4721,16 +4724,16 @@
         <v>124</v>
       </c>
       <c r="C138" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E138" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F138" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4741,13 +4744,13 @@
         <v>124</v>
       </c>
       <c r="C139" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E139" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4758,16 +4761,16 @@
         <v>124</v>
       </c>
       <c r="C140" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E140" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F140" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4778,13 +4781,13 @@
         <v>124</v>
       </c>
       <c r="C141" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D141" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E141" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4795,13 +4798,13 @@
         <v>124</v>
       </c>
       <c r="C142" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D142" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E142" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4812,13 +4815,13 @@
         <v>124</v>
       </c>
       <c r="C143" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D143" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E143" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4829,13 +4832,13 @@
         <v>124</v>
       </c>
       <c r="C144" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E144" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4846,16 +4849,16 @@
         <v>124</v>
       </c>
       <c r="C145" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E145" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F145" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4866,16 +4869,16 @@
         <v>124</v>
       </c>
       <c r="C146" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E146" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F146" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4886,16 +4889,16 @@
         <v>124</v>
       </c>
       <c r="C147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E147" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F147" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4906,16 +4909,16 @@
         <v>124</v>
       </c>
       <c r="C148" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F148" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4926,13 +4929,13 @@
         <v>124</v>
       </c>
       <c r="C149" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E149" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4943,13 +4946,13 @@
         <v>124</v>
       </c>
       <c r="C150" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E150" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4960,13 +4963,13 @@
         <v>124</v>
       </c>
       <c r="C151" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E151" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4977,13 +4980,13 @@
         <v>124</v>
       </c>
       <c r="C152" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E152" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4994,16 +4997,16 @@
         <v>124</v>
       </c>
       <c r="C153" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E153" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F153" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5014,16 +5017,16 @@
         <v>124</v>
       </c>
       <c r="C154" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E154" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F154" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5034,16 +5037,16 @@
         <v>124</v>
       </c>
       <c r="C155" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5054,16 +5057,16 @@
         <v>124</v>
       </c>
       <c r="C156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E156" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F156" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5074,16 +5077,16 @@
         <v>124</v>
       </c>
       <c r="C157" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E157" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F157" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5094,13 +5097,13 @@
         <v>124</v>
       </c>
       <c r="C158" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E158" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5111,13 +5114,13 @@
         <v>124</v>
       </c>
       <c r="C159" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E159" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5128,16 +5131,16 @@
         <v>124</v>
       </c>
       <c r="C160" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E160" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F160" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -5148,16 +5151,16 @@
         <v>124</v>
       </c>
       <c r="C161" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E161" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F161" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -5168,16 +5171,16 @@
         <v>124</v>
       </c>
       <c r="C162" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E162" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F162" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5188,16 +5191,16 @@
         <v>124</v>
       </c>
       <c r="C163" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E163" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F163" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5208,16 +5211,16 @@
         <v>124</v>
       </c>
       <c r="C164" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F164" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -5228,16 +5231,16 @@
         <v>124</v>
       </c>
       <c r="C165" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E165" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F165" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5248,13 +5251,13 @@
         <v>124</v>
       </c>
       <c r="C166" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E166" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5265,16 +5268,16 @@
         <v>124</v>
       </c>
       <c r="C167" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E167" t="s">
+        <v>231</v>
+      </c>
+      <c r="G167" t="s">
         <v>313</v>
-      </c>
-      <c r="E167" t="s">
-        <v>232</v>
-      </c>
-      <c r="G167" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5285,16 +5288,16 @@
         <v>124</v>
       </c>
       <c r="C168" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E168" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F168" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5305,16 +5308,16 @@
         <v>124</v>
       </c>
       <c r="C169" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E169" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F169" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5325,16 +5328,16 @@
         <v>124</v>
       </c>
       <c r="C170" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E170" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F170" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -5345,16 +5348,16 @@
         <v>124</v>
       </c>
       <c r="C171" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E171" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F171" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -5365,16 +5368,16 @@
         <v>124</v>
       </c>
       <c r="C172" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E172" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F172" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -5385,16 +5388,16 @@
         <v>124</v>
       </c>
       <c r="C173" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E173" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F173" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -5405,16 +5408,16 @@
         <v>124</v>
       </c>
       <c r="C174" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E174" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F174" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -5425,16 +5428,16 @@
         <v>124</v>
       </c>
       <c r="C175" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E175" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F175" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5445,16 +5448,16 @@
         <v>124</v>
       </c>
       <c r="C176" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E176" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5465,13 +5468,13 @@
         <v>124</v>
       </c>
       <c r="C177" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E177" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5482,13 +5485,13 @@
         <v>124</v>
       </c>
       <c r="C178" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E178" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5499,16 +5502,16 @@
         <v>124</v>
       </c>
       <c r="C179" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E179" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F179" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5519,16 +5522,16 @@
         <v>124</v>
       </c>
       <c r="C180" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E180" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F180" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5539,16 +5542,16 @@
         <v>124</v>
       </c>
       <c r="C181" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E181" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F181" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5559,16 +5562,16 @@
         <v>124</v>
       </c>
       <c r="C182" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E182" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5579,16 +5582,16 @@
         <v>124</v>
       </c>
       <c r="C183" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E183" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F183" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5599,16 +5602,16 @@
         <v>124</v>
       </c>
       <c r="C184" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E184" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F184" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5619,16 +5622,16 @@
         <v>124</v>
       </c>
       <c r="C185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E185" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F185" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5639,16 +5642,16 @@
         <v>124</v>
       </c>
       <c r="C186" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E186" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F186" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5659,16 +5662,16 @@
         <v>124</v>
       </c>
       <c r="C187" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E187" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F187" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5679,16 +5682,16 @@
         <v>124</v>
       </c>
       <c r="C188" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E188" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F188" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5699,13 +5702,13 @@
         <v>124</v>
       </c>
       <c r="C189" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E189" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5716,16 +5719,16 @@
         <v>124</v>
       </c>
       <c r="C190" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E190" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F190" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5736,13 +5739,13 @@
         <v>124</v>
       </c>
       <c r="C191" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E191" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5753,13 +5756,13 @@
         <v>124</v>
       </c>
       <c r="C192" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E192" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5770,16 +5773,16 @@
         <v>124</v>
       </c>
       <c r="C193" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E193" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F193" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5790,13 +5793,13 @@
         <v>124</v>
       </c>
       <c r="C194" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E194" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5807,16 +5810,16 @@
         <v>124</v>
       </c>
       <c r="C195" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E195" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F195" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5827,16 +5830,16 @@
         <v>124</v>
       </c>
       <c r="C196" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E196" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F196" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5847,13 +5850,13 @@
         <v>124</v>
       </c>
       <c r="C197" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E197" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5864,16 +5867,16 @@
         <v>124</v>
       </c>
       <c r="C198" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E198" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F198" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5884,16 +5887,16 @@
         <v>124</v>
       </c>
       <c r="C199" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E199" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F199" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5904,16 +5907,16 @@
         <v>124</v>
       </c>
       <c r="C200" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E200" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F200" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5924,13 +5927,13 @@
         <v>124</v>
       </c>
       <c r="C201" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E201" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5941,13 +5944,13 @@
         <v>124</v>
       </c>
       <c r="C202" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E202" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5958,13 +5961,13 @@
         <v>124</v>
       </c>
       <c r="C203" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E203" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5975,16 +5978,16 @@
         <v>124</v>
       </c>
       <c r="C204" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E204" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F204" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5995,16 +5998,16 @@
         <v>124</v>
       </c>
       <c r="C205" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E205" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6015,16 +6018,16 @@
         <v>124</v>
       </c>
       <c r="C206" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E206" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F206" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6035,13 +6038,13 @@
         <v>124</v>
       </c>
       <c r="C207" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E207" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6052,16 +6055,16 @@
         <v>124</v>
       </c>
       <c r="C208" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E208" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F208" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6072,13 +6075,13 @@
         <v>124</v>
       </c>
       <c r="C209" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E209" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6089,16 +6092,16 @@
         <v>124</v>
       </c>
       <c r="C210" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E210" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F210" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6109,16 +6112,16 @@
         <v>124</v>
       </c>
       <c r="C211" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E211" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F211" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6129,16 +6132,16 @@
         <v>124</v>
       </c>
       <c r="C212" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E212" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F212" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6149,16 +6152,16 @@
         <v>124</v>
       </c>
       <c r="C213" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E213" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F213" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6169,16 +6172,16 @@
         <v>124</v>
       </c>
       <c r="C214" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E214" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F214" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6189,19 +6192,19 @@
         <v>124</v>
       </c>
       <c r="C215" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E215" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G215" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6212,13 +6215,13 @@
         <v>124</v>
       </c>
       <c r="C216" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E216" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6229,13 +6232,13 @@
         <v>124</v>
       </c>
       <c r="C217" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E217" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6246,16 +6249,16 @@
         <v>124</v>
       </c>
       <c r="C218" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E218" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F218" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6266,16 +6269,16 @@
         <v>124</v>
       </c>
       <c r="C219" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6286,13 +6289,13 @@
         <v>124</v>
       </c>
       <c r="C220" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E220" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6303,13 +6306,13 @@
         <v>124</v>
       </c>
       <c r="C221" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E221" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -6320,13 +6323,13 @@
         <v>124</v>
       </c>
       <c r="C222" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E222" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -6337,13 +6340,13 @@
         <v>124</v>
       </c>
       <c r="C223" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E223" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -6354,16 +6357,16 @@
         <v>124</v>
       </c>
       <c r="C224" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6374,13 +6377,13 @@
         <v>124</v>
       </c>
       <c r="C225" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6391,13 +6394,13 @@
         <v>124</v>
       </c>
       <c r="C226" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E226" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -6408,16 +6411,16 @@
         <v>124</v>
       </c>
       <c r="C227" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E227" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F227" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6428,16 +6431,16 @@
         <v>124</v>
       </c>
       <c r="C228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F228" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6448,16 +6451,16 @@
         <v>124</v>
       </c>
       <c r="C229" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E229" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F229" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6468,16 +6471,16 @@
         <v>124</v>
       </c>
       <c r="C230" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E230" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F230" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6488,16 +6491,16 @@
         <v>124</v>
       </c>
       <c r="C231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E231" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G231" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6508,13 +6511,13 @@
         <v>124</v>
       </c>
       <c r="C232" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E232" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6525,13 +6528,13 @@
         <v>124</v>
       </c>
       <c r="C233" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6542,16 +6545,16 @@
         <v>124</v>
       </c>
       <c r="C234" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E234" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F234" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6562,16 +6565,16 @@
         <v>124</v>
       </c>
       <c r="C235" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E235" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F235" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6582,16 +6585,16 @@
         <v>124</v>
       </c>
       <c r="C236" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E236" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F236" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6602,13 +6605,13 @@
         <v>124</v>
       </c>
       <c r="C237" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E237" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6619,16 +6622,16 @@
         <v>124</v>
       </c>
       <c r="C238" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E238" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F238" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6639,16 +6642,16 @@
         <v>124</v>
       </c>
       <c r="C239" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E239" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F239" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6659,13 +6662,13 @@
         <v>124</v>
       </c>
       <c r="C240" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E240" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6676,16 +6679,16 @@
         <v>124</v>
       </c>
       <c r="C241" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E241" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F241" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6696,13 +6699,13 @@
         <v>124</v>
       </c>
       <c r="C242" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E242" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -6713,16 +6716,16 @@
         <v>124</v>
       </c>
       <c r="C243" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E243" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F243" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6733,16 +6736,16 @@
         <v>124</v>
       </c>
       <c r="C244" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E244" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F244" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -6753,19 +6756,19 @@
         <v>124</v>
       </c>
       <c r="C245" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E245" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F245" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G245" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6776,16 +6779,16 @@
         <v>124</v>
       </c>
       <c r="C246" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E246" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F246" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -6796,16 +6799,16 @@
         <v>124</v>
       </c>
       <c r="C247" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E247" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F247" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6816,16 +6819,16 @@
         <v>124</v>
       </c>
       <c r="C248" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E248" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F248" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6836,16 +6839,16 @@
         <v>124</v>
       </c>
       <c r="C249" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E249" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F249" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -6856,16 +6859,16 @@
         <v>124</v>
       </c>
       <c r="C250" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E250" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F250" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -6876,16 +6879,16 @@
         <v>124</v>
       </c>
       <c r="C251" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="E251" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F251" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -6896,16 +6899,16 @@
         <v>124</v>
       </c>
       <c r="C252" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="E252" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F252" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -6916,16 +6919,16 @@
         <v>124</v>
       </c>
       <c r="C253" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>34</v>
+        <v>382</v>
       </c>
       <c r="E253" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F253" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -6936,13 +6939,13 @@
         <v>124</v>
       </c>
       <c r="C254" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E254" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6953,13 +6956,13 @@
         <v>124</v>
       </c>
       <c r="C255" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E255" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6970,13 +6973,13 @@
         <v>124</v>
       </c>
       <c r="C256" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E256" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -6987,13 +6990,13 @@
         <v>124</v>
       </c>
       <c r="C257" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E257" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7004,16 +7007,16 @@
         <v>124</v>
       </c>
       <c r="C258" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E258" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F258" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7024,16 +7027,16 @@
         <v>124</v>
       </c>
       <c r="C259" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E259" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F259" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7044,19 +7047,19 @@
         <v>124</v>
       </c>
       <c r="C260" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E260" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F260" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G260" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7067,16 +7070,16 @@
         <v>124</v>
       </c>
       <c r="C261" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E261" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F261" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7087,13 +7090,13 @@
         <v>124</v>
       </c>
       <c r="C262" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E262" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7104,16 +7107,16 @@
         <v>124</v>
       </c>
       <c r="C263" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E263" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F263" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7124,16 +7127,16 @@
         <v>124</v>
       </c>
       <c r="C264" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E264" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F264" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7144,16 +7147,16 @@
         <v>124</v>
       </c>
       <c r="C265" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E265" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F265" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -7164,13 +7167,13 @@
         <v>124</v>
       </c>
       <c r="C266" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E266" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -7181,16 +7184,16 @@
         <v>124</v>
       </c>
       <c r="C267" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E267" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F267" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -7201,16 +7204,16 @@
         <v>124</v>
       </c>
       <c r="C268" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E268" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F268" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -7221,13 +7224,13 @@
         <v>124</v>
       </c>
       <c r="C269" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E269" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -7238,16 +7241,16 @@
         <v>124</v>
       </c>
       <c r="C270" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E270" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F270" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -7258,16 +7261,16 @@
         <v>124</v>
       </c>
       <c r="C271" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E271" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F271" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -7278,16 +7281,16 @@
         <v>124</v>
       </c>
       <c r="C272" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E272" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F272" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -7298,13 +7301,13 @@
         <v>124</v>
       </c>
       <c r="C273" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E273" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -7315,13 +7318,13 @@
         <v>124</v>
       </c>
       <c r="C274" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E274" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -7332,13 +7335,13 @@
         <v>124</v>
       </c>
       <c r="C275" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E275" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -7349,13 +7352,13 @@
         <v>124</v>
       </c>
       <c r="C276" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E276" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7366,22 +7369,23 @@
         <v>124</v>
       </c>
       <c r="C277" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E277" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F277" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G277" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J277"/>
   <sortState ref="A2:H285">
     <sortCondition ref="D1"/>
   </sortState>
@@ -7395,7 +7399,7 @@
   <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7411,13 +7415,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7428,10 +7432,10 @@
         <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7442,10 +7446,10 @@
         <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7456,10 +7460,10 @@
         <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7470,10 +7474,10 @@
         <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7484,10 +7488,10 @@
         <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7498,10 +7502,10 @@
         <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7512,10 +7516,10 @@
         <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7526,10 +7530,10 @@
         <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -7540,10 +7544,10 @@
         <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7554,10 +7558,10 @@
         <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -7568,10 +7572,10 @@
         <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7582,10 +7586,10 @@
         <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -7596,10 +7600,10 @@
         <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -7613,7 +7617,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -7627,7 +7631,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7641,7 +7645,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7655,7 +7659,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7669,7 +7673,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7683,7 +7687,7 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -7697,7 +7701,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7711,7 +7715,7 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7725,7 +7729,7 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7736,10 +7740,10 @@
         <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -7750,10 +7754,10 @@
         <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -7764,10 +7768,10 @@
         <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7778,10 +7782,10 @@
         <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -7792,10 +7796,10 @@
         <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -7806,10 +7810,10 @@
         <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -7820,10 +7824,10 @@
         <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -7837,7 +7841,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -7851,7 +7855,7 @@
         <v>452057119324800</v>
       </c>
       <c r="D32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -7862,10 +7866,10 @@
         <v>124</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -7876,10 +7880,10 @@
         <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -7890,10 +7894,10 @@
         <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -7904,10 +7908,10 @@
         <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -7918,10 +7922,10 @@
         <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -7932,10 +7936,10 @@
         <v>124</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -7946,10 +7950,10 @@
         <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -7960,10 +7964,10 @@
         <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -7974,10 +7978,10 @@
         <v>124</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -7988,10 +7992,10 @@
         <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -8002,10 +8006,10 @@
         <v>124</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -8016,10 +8020,10 @@
         <v>124</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8030,10 +8034,10 @@
         <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -8044,10 +8048,10 @@
         <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -8058,10 +8062,10 @@
         <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -8072,10 +8076,10 @@
         <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8086,10 +8090,10 @@
         <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8100,10 +8104,10 @@
         <v>124</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8114,10 +8118,10 @@
         <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8131,7 +8135,7 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -8145,7 +8149,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -8159,7 +8163,7 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -8173,7 +8177,7 @@
         <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -8187,7 +8191,7 @@
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -8201,7 +8205,7 @@
         <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -8212,10 +8216,10 @@
         <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -8229,7 +8233,7 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -8243,7 +8247,7 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -8254,10 +8258,10 @@
         <v>124</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -8268,10 +8272,10 @@
         <v>124</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -8282,10 +8286,10 @@
         <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -8296,10 +8300,10 @@
         <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -8310,10 +8314,10 @@
         <v>124</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -8324,10 +8328,10 @@
         <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -8338,10 +8342,10 @@
         <v>124</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -8352,10 +8356,10 @@
         <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -8366,10 +8370,10 @@
         <v>124</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -8380,10 +8384,10 @@
         <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -8394,10 +8398,10 @@
         <v>124</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -8408,10 +8412,10 @@
         <v>124</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -8422,10 +8426,10 @@
         <v>124</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -8436,10 +8440,10 @@
         <v>124</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -8450,10 +8454,10 @@
         <v>124</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -8464,10 +8468,10 @@
         <v>124</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -8481,7 +8485,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -8495,7 +8499,7 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -8506,10 +8510,10 @@
         <v>124</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -8520,10 +8524,10 @@
         <v>124</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -8534,10 +8538,10 @@
         <v>124</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -8548,10 +8552,10 @@
         <v>124</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -8562,10 +8566,10 @@
         <v>124</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -8576,10 +8580,10 @@
         <v>124</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -8590,10 +8594,10 @@
         <v>124</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -8607,7 +8611,7 @@
         <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -8621,7 +8625,7 @@
         <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -8635,7 +8639,7 @@
         <v>4440091182115</v>
       </c>
       <c r="D88" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -8649,7 +8653,7 @@
         <v>14280001</v>
       </c>
       <c r="D89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -8663,7 +8667,7 @@
         <v>14280001</v>
       </c>
       <c r="D90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -8677,7 +8681,7 @@
         <v>14240010</v>
       </c>
       <c r="D91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -8691,7 +8695,7 @@
         <v>14240010</v>
       </c>
       <c r="D92" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -8705,7 +8709,7 @@
         <v>14260006</v>
       </c>
       <c r="D93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -8719,7 +8723,7 @@
         <v>14260006</v>
       </c>
       <c r="D94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -8733,7 +8737,7 @@
         <v>14160007</v>
       </c>
       <c r="D95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -8744,10 +8748,10 @@
         <v>124</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D96" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -8758,10 +8762,10 @@
         <v>124</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -8772,10 +8776,10 @@
         <v>124</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -8786,10 +8790,10 @@
         <v>124</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -8800,10 +8804,10 @@
         <v>124</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D100" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -8817,7 +8821,7 @@
         <v>422622122004000</v>
       </c>
       <c r="D101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -8828,10 +8832,10 @@
         <v>124</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -8842,10 +8846,10 @@
         <v>124</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -8856,10 +8860,10 @@
         <v>124</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -8870,10 +8874,10 @@
         <v>124</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -8884,10 +8888,10 @@
         <v>124</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -8898,10 +8902,10 @@
         <v>124</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -8912,10 +8916,10 @@
         <v>124</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -8929,7 +8933,7 @@
         <v>37000</v>
       </c>
       <c r="D109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -8943,7 +8947,7 @@
         <v>37001</v>
       </c>
       <c r="D110" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -8957,7 +8961,7 @@
         <v>37002</v>
       </c>
       <c r="D111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -8971,7 +8975,7 @@
         <v>37003</v>
       </c>
       <c r="D112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -8985,7 +8989,7 @@
         <v>37000</v>
       </c>
       <c r="D113" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -8999,7 +9003,7 @@
         <v>37001</v>
       </c>
       <c r="D114" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -9013,7 +9017,7 @@
         <v>37002</v>
       </c>
       <c r="D115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -9027,7 +9031,7 @@
         <v>37003</v>
       </c>
       <c r="D116" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -9041,7 +9045,7 @@
         <v>421010121271200</v>
       </c>
       <c r="D117" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -9055,7 +9059,7 @@
         <v>32471</v>
       </c>
       <c r="D118" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -9069,7 +9073,7 @@
         <v>36996</v>
       </c>
       <c r="D119" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -9083,7 +9087,7 @@
         <v>36776</v>
       </c>
       <c r="D120" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -9097,7 +9101,7 @@
         <v>37531</v>
       </c>
       <c r="D121" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -9111,7 +9115,7 @@
         <v>32473</v>
       </c>
       <c r="D122" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -9125,7 +9129,7 @@
         <v>37086</v>
       </c>
       <c r="D123" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -9136,10 +9140,10 @@
         <v>124</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D124" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -9150,10 +9154,10 @@
         <v>124</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -9164,10 +9168,10 @@
         <v>124</v>
       </c>
       <c r="C126" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" t="s">
         <v>227</v>
-      </c>
-      <c r="D126" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -9178,10 +9182,10 @@
         <v>124</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -9192,10 +9196,10 @@
         <v>124</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D128" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -9217,7 +9221,7 @@
         <v>11486990</v>
       </c>
       <c r="D130" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -9231,7 +9235,7 @@
         <v>32474</v>
       </c>
       <c r="D131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -9245,7 +9249,7 @@
         <v>37527</v>
       </c>
       <c r="D132" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -9259,7 +9263,7 @@
         <v>37234</v>
       </c>
       <c r="D133" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -9273,7 +9277,7 @@
         <v>37233</v>
       </c>
       <c r="D134" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -9284,10 +9288,10 @@
         <v>124</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D135" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -9298,10 +9302,10 @@
         <v>124</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -9312,10 +9316,10 @@
         <v>124</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D137" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -9326,10 +9330,10 @@
         <v>124</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -9340,10 +9344,10 @@
         <v>124</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D139" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -9354,10 +9358,10 @@
         <v>124</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -9368,10 +9372,10 @@
         <v>124</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D141" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -9385,7 +9389,7 @@
         <v>4440091182115</v>
       </c>
       <c r="D142" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -9396,10 +9400,10 @@
         <v>124</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D143" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -9410,10 +9414,10 @@
         <v>124</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D144" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -9424,10 +9428,10 @@
         <v>124</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D145" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -9438,10 +9442,10 @@
         <v>124</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D146" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -9452,10 +9456,10 @@
         <v>124</v>
       </c>
       <c r="C147" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -9466,10 +9470,10 @@
         <v>124</v>
       </c>
       <c r="C148" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D148" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -9480,10 +9484,10 @@
         <v>124</v>
       </c>
       <c r="C149" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D149" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -9494,10 +9498,10 @@
         <v>124</v>
       </c>
       <c r="C150" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D150" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -9508,10 +9512,10 @@
         <v>124</v>
       </c>
       <c r="C151" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D151" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -9522,13 +9526,14 @@
         <v>124</v>
       </c>
       <c r="C152" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D152" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D152"/>
   <sortState ref="A2:C135">
     <sortCondition ref="A112"/>
   </sortState>
